--- a/exercises/DT262 - Create Purchase Requisitions from Excel (48M).xlsx
+++ b/exercises/DT262 - Create Purchase Requisitions from Excel (48M).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sapnam-my.sharepoint.com/personal/amitha_kamath_sap_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMER35081269\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{115C74EC-206C-4DF5-8A98-09989EBB41A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881278C3-33E5-4D38-9FE0-D6C04D6B596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{27BD9060-B3D0-4ED3-A339-07F0D99BEC47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{27BD9060-B3D0-4ED3-A339-07F0D99BEC47}"/>
   </bookViews>
   <sheets>
     <sheet name="Field List" sheetId="7" r:id="rId1"/>
@@ -182,6 +182,9 @@
     <t>DocumentText</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>Fields List</t>
   </si>
   <si>
@@ -276,9 +279,6 @@
   </si>
   <si>
     <t>EUR</t>
-  </si>
-  <si>
-    <t>PR Test</t>
   </si>
   <si>
     <t>10010000</t>
@@ -506,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -596,7 +596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,20 +912,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A888372-44FD-41C9-97F0-BCD9A76A0933}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -942,7 +941,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -958,9 +957,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -976,562 +975,562 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="33"/>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="34"/>
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
       <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="34"/>
       <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="34"/>
       <c r="B22" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="34"/>
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="34"/>
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="34"/>
       <c r="B25" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="34"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="33"/>
       <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="33"/>
       <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="33"/>
       <c r="B30" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="33"/>
       <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="33"/>
       <c r="B32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E32" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E33" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="33"/>
       <c r="B34" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E34" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="C35" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E35" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
       <c r="B36" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E36" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="34"/>
       <c r="B37" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E37" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E38" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="34"/>
       <c r="B39" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E39" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="34"/>
       <c r="B40" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E40" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="34"/>
       <c r="B41" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="34"/>
       <c r="B42" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E42" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E43" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
       <c r="B44" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E44" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="31"/>
       <c r="B45" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E45" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="31"/>
       <c r="B46" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E46" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="32"/>
       <c r="B47" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1558,19 +1557,19 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -1585,7 +1584,7 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -1600,9 +1599,9 @@
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -1617,7 +1616,7 @@
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
     </row>
-    <row r="4" spans="1:28" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="16" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1628,20 +1627,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="16" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>1</v>
@@ -1650,7 +1649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1675,35 +1674,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A411F460-4D0A-4CEA-B79E-8F0DDB413602}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" style="1"/>
-    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="25.6640625" style="1"/>
+    <col min="3" max="3" width="27.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" customWidth="1"/>
     <col min="11" max="11" width="22" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="26.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="25.7109375" style="1"/>
+    <col min="12" max="12" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -1716,7 +1715,7 @@
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -1729,9 +1728,9 @@
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -1744,12 +1743,12 @@
       <c r="J3" s="36"/>
       <c r="K3" s="36"/>
     </row>
-    <row r="4" spans="1:19" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="16" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>5</v>
@@ -1803,71 +1802,71 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="16" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>5</v>
@@ -1921,7 +1920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1947,34 +1946,34 @@
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O7" s="19">
-        <v>44640</v>
+        <v>44489</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="R7" s="19">
-        <v>44632</v>
+        <v>44481</v>
       </c>
       <c r="S7" s="19">
-        <v>44637</v>
+        <v>44486</v>
       </c>
     </row>
   </sheetData>
@@ -1995,22 +1994,22 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="1"/>
+    <col min="9" max="9" width="15.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -2025,7 +2024,7 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -2040,9 +2039,9 @@
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -2057,12 +2056,12 @@
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
     </row>
-    <row r="4" spans="1:28" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="16" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>31</v>
@@ -2086,44 +2085,44 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="16" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>32</v>
@@ -2144,7 +2143,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2160,7 +2159,7 @@
       <c r="E7" s="1">
         <v>20</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G7" s="1">
@@ -2182,25 +2181,25 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -2215,7 +2214,7 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -2230,9 +2229,9 @@
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -2247,15 +2246,15 @@
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
     </row>
-    <row r="4" spans="1:28" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="16" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>38</v>
@@ -2276,44 +2275,44 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="16" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>38</v>
@@ -2334,7 +2333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2377,23 +2376,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49518242-4466-4CEC-BE5D-8F4B209C0093}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -2404,7 +2403,7 @@
       <c r="W1" s="15"/>
       <c r="X1" s="15"/>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -2415,9 +2414,9 @@
       <c r="W2" s="15"/>
       <c r="X2" s="15"/>
     </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -2428,67 +2427,67 @@
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
     </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="16" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="D6" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2496,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
